--- a/Pax List.xlsx
+++ b/Pax List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anami\Wipro-DotNet-React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E443AE7-A624-48D0-8A1E-1F17F2FB5D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0805E965-04E2-45F2-8874-A33534B9BD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{36F586F5-B527-4202-9DE9-C7A20471BFBA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
   <si>
     <t>SAI TEJA YERUVA</t>
   </si>
@@ -164,7 +164,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,6 +222,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,15 +285,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -295,6 +292,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -614,7 +617,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -647,7 +650,7 @@
       <c r="I2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -661,10 +664,10 @@
       <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -675,13 +678,13 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -692,7 +695,7 @@
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -715,9 +718,7 @@
       <c r="I6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
@@ -726,6 +727,9 @@
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="I7" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
@@ -734,11 +738,8 @@
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="12" t="s">
         <v>1</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>11</v>
@@ -755,7 +756,7 @@
         <v>8</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>14</v>
@@ -772,9 +773,9 @@
         <v>10</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -788,8 +789,8 @@
       <c r="G11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>15</v>
+      <c r="I11" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>31</v>
@@ -805,8 +806,8 @@
       <c r="G12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>23</v>
+      <c r="I12" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
@@ -816,6 +817,9 @@
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="I13" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
@@ -824,6 +828,9 @@
       <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="G14" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
@@ -832,8 +839,8 @@
       <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>18</v>
+      <c r="G15" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
@@ -843,8 +850,8 @@
       <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>20</v>
+      <c r="G16" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.55000000000000004">
@@ -855,7 +862,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.55000000000000004">
@@ -865,9 +872,6 @@
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
@@ -876,9 +880,7 @@
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">

--- a/Pax List.xlsx
+++ b/Pax List.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anami\Wipro-DotNet-React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0805E965-04E2-45F2-8874-A33534B9BD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA395A0-3927-4042-BF0E-4CF65E4C27A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{36F586F5-B527-4202-9DE9-C7A20471BFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="33">
   <si>
     <t>SAI TEJA YERUVA</t>
   </si>
@@ -130,6 +132,9 @@
   </si>
   <si>
     <t>Aniket Kumar Verma</t>
+  </si>
+  <si>
+    <t>Logic Question 2</t>
   </si>
 </sst>
 </file>
@@ -164,7 +169,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +236,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -259,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -298,6 +309,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -617,7 +634,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -989,4 +1006,299 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FAE7A1-154B-4C1D-9017-65297562CFE9}">
+  <dimension ref="A3:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="8.83984375" outlineLevel="1"/>
+    <col min="2" max="2" width="30.26171875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="14">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="14">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="14">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="14">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="14">
+        <v>9</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="14">
+        <v>10</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="14">
+        <v>11</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="14">
+        <v>13</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="14">
+        <v>14</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="14">
+        <v>15</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="14">
+        <v>16</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="14">
+        <v>17</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="14">
+        <v>18</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="14">
+        <v>19</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="14">
+        <v>20</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="14">
+        <v>21</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="14">
+        <v>22</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="14">
+        <v>23</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="14">
+        <v>24</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="14">
+        <v>25</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="14">
+        <v>26</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="14">
+        <v>27</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="14">
+        <v>28</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="14">
+        <v>29</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="14">
+        <v>30</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="14">
+        <v>31</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="14">
+        <v>32</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B594095C-78A2-4FE5-9992-E6C6F7D29D2C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Pax List.xlsx
+++ b/Pax List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anami\Wipro-DotNet-React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA395A0-3927-4042-BF0E-4CF65E4C27A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FFE728-BBE0-4EFE-B5DB-7E3E435239BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{36F586F5-B527-4202-9DE9-C7A20471BFBA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="35">
   <si>
     <t>SAI TEJA YERUVA</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>Logic Question 2</t>
+  </si>
+  <si>
+    <t>Formik</t>
+  </si>
+  <si>
+    <t>Error Boundary</t>
   </si>
 </sst>
 </file>
@@ -270,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -315,6 +321,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -631,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25CB17B-CA3F-4AFA-B013-5C0191084DA8}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -871,7 +887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -882,7 +898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -890,7 +906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -899,7 +915,7 @@
       </c>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -907,7 +923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -915,7 +931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -923,7 +939,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -931,77 +947,193 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G24" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="16"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G25" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="16"/>
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>26</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G26" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="16"/>
+      <c r="K26" s="15"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>27</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G27" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="16"/>
+      <c r="K27" s="15"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G28" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="16"/>
+      <c r="K28" s="18"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>29</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G29" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>30</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G30" s="15"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="15"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>31</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" s="16"/>
+      <c r="K31" s="15"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>32</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="G32" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="16"/>
+      <c r="K32" s="17"/>
+    </row>
+    <row r="33" spans="7:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G33" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="7:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G34" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+    </row>
+    <row r="35" spans="7:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G35" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+    </row>
+    <row r="36" spans="7:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G36" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+    </row>
+    <row r="37" spans="7:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G37" s="17"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
